--- a/ActiTime-Automation/TestScriptDataFiles/Login.xlsx
+++ b/ActiTime-Automation/TestScriptDataFiles/Login.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CurrentWorkSpace\DemoAutomationRepository\ActiTime-Automation\TestScriptDataFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8415"/>
+    <workbookView xWindow="0" yWindow="2440" windowWidth="15220" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
+    <sheet name="testdata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>TestScriptID</t>
   </si>
@@ -41,6 +37,9 @@
     <t>Navigate the Application URL</t>
   </si>
   <si>
+    <t>navigate</t>
+  </si>
+  <si>
     <t>TS01</t>
   </si>
   <si>
@@ -77,16 +76,55 @@
     <t>com.sgtesting.actitime.tests.LoginLogout</t>
   </si>
   <si>
-    <t>navigate</t>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>http://localhost/login.do</t>
+  </si>
+  <si>
+    <t>TestDataColumn</t>
+  </si>
+  <si>
+    <t>Username,Password</t>
+  </si>
+  <si>
+    <t>ExpectedResultColumn</t>
+  </si>
+  <si>
+    <t>ObjectMapColumn</t>
+  </si>
+  <si>
+    <t>logintitle</t>
+  </si>
+  <si>
+    <t>homepagetext</t>
+  </si>
+  <si>
+    <t>txtloginusername,txtloginpassword,btnloginbutton</t>
+  </si>
+  <si>
+    <t>lnkhomelogout</t>
+  </si>
+  <si>
+    <t>TS05</t>
   </si>
   <si>
     <t>Minimize Flyout Window</t>
   </si>
   <si>
     <t>minimizeFlyOutWindow</t>
-  </si>
-  <si>
-    <t>TS05</t>
   </si>
   <si>
     <t>com.sgtesting.actitime.tests.HomePage</t>
@@ -95,8 +133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +146,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,15 +191,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,27 +479,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,78 +515,162 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="29">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>